--- a/data/trans_orig/P24F-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3501</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8866</v>
+        <v>10055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03088168285679771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008244662994333109</v>
+        <v>0.008257742896357712</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07821479357332227</v>
+        <v>0.08870505790049939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>3081</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7570</v>
+        <v>8171</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0426009557805299</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01355512733586618</v>
+        <v>0.01345942772004406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1046897864674925</v>
+        <v>0.1130030699631934</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>6581</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2574</v>
+        <v>2718</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13138</v>
+        <v>14128</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03544592675047906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0138657482719342</v>
+        <v>0.01463679540771145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07076128732163657</v>
+        <v>0.07609327518303323</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>48167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38290</v>
+        <v>37740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60034</v>
+        <v>57938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4249072018290437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3377830793080692</v>
+        <v>0.3329271837177454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5295973419404921</v>
+        <v>0.5111103595663904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -835,19 +835,19 @@
         <v>37183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28481</v>
+        <v>28433</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45968</v>
+        <v>46138</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5141991022201504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3938683305910952</v>
+        <v>0.3932020782608801</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6356874063266713</v>
+        <v>0.6380437245091126</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>83</v>
@@ -856,19 +856,19 @@
         <v>85349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71359</v>
+        <v>70602</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98596</v>
+        <v>98970</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4596832509719901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3843358275968689</v>
+        <v>0.3802594469376658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5310331320504964</v>
+        <v>0.5330440384776424</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>49548</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38343</v>
+        <v>38560</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60101</v>
+        <v>60376</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.437089110723821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3382511471842982</v>
+        <v>0.3401593063597316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5301883388550328</v>
+        <v>0.5326149308156257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -906,19 +906,19 @@
         <v>23249</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15328</v>
+        <v>15766</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32305</v>
+        <v>31974</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3215057679426774</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.211967963920847</v>
+        <v>0.2180246680883942</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4467504205861252</v>
+        <v>0.4421632822020736</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -927,19 +927,19 @@
         <v>72796</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>59305</v>
+        <v>58405</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86066</v>
+        <v>87772</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3920734711074935</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3194135217860036</v>
+        <v>0.3145656045205265</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4635451279039641</v>
+        <v>0.4727333857455026</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>12143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6641</v>
+        <v>6494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19900</v>
+        <v>20485</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1071220045903376</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05858602895227613</v>
+        <v>0.0572903591282496</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1755541038066878</v>
+        <v>0.1807093200474784</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -977,19 +977,19 @@
         <v>8800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4228</v>
+        <v>4120</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16313</v>
+        <v>16656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1216941740566423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0584721554211818</v>
+        <v>0.05697011866016553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2255933860981149</v>
+        <v>0.2303387165845069</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -998,19 +998,19 @@
         <v>20943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13054</v>
+        <v>14351</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31199</v>
+        <v>32118</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1127973511700373</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07030688492260487</v>
+        <v>0.07729512765114775</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1680360269318752</v>
+        <v>0.1729845617323703</v>
       </c>
     </row>
     <row r="8">
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5162</v>
+        <v>5223</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005451229555621411</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0271014431544701</v>
+        <v>0.02741823445839375</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4968</v>
+        <v>4751</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.008265423648880596</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0418711972271355</v>
+        <v>0.04003771643851099</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6175</v>
+        <v>7220</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0065313845925673</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01997438339894362</v>
+        <v>0.02335581401953142</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>56244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43163</v>
+        <v>44623</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69576</v>
+        <v>70315</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2952658997689526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2265948393524568</v>
+        <v>0.2342599609334732</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3652570769182257</v>
+        <v>0.3691338686417092</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1194,19 +1194,19 @@
         <v>28845</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20246</v>
+        <v>20874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39085</v>
+        <v>39064</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2430947479827847</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1706314305649495</v>
+        <v>0.1759232570712476</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.329399380153198</v>
+        <v>0.3292243118081212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -1215,19 +1215,19 @@
         <v>85089</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70527</v>
+        <v>69496</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101886</v>
+        <v>102165</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2752413632524133</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2281377047960306</v>
+        <v>0.2248022480478837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.329575001078155</v>
+        <v>0.3304772259248591</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>73741</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60419</v>
+        <v>60100</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88789</v>
+        <v>87466</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3871195124715391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3171851288007948</v>
+        <v>0.3155080124825786</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4661167585962488</v>
+        <v>0.4591742540327525</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -1265,19 +1265,19 @@
         <v>57353</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47093</v>
+        <v>46488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68022</v>
+        <v>67873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4833552920841523</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3968879049373293</v>
+        <v>0.3917882461923587</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5732674758163547</v>
+        <v>0.5720169623466448</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>122</v>
@@ -1286,19 +1286,19 @@
         <v>131094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>114340</v>
+        <v>114074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>149874</v>
+        <v>150026</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4240571076189272</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3698607009711817</v>
+        <v>0.3690003591854589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4848054672376351</v>
+        <v>0.4852964113201568</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>59463</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45903</v>
+        <v>46558</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>72712</v>
+        <v>74393</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3121633582038869</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2409772662770933</v>
+        <v>0.244416421648363</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3817187013550187</v>
+        <v>0.3905450431040048</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -1336,19 +1336,19 @@
         <v>31478</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22134</v>
+        <v>22286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>41647</v>
+        <v>41396</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2652845362841825</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.186538091964235</v>
+        <v>0.1878180661124413</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3509867400090084</v>
+        <v>0.3488710208348376</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>87</v>
@@ -1357,19 +1357,19 @@
         <v>90941</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75129</v>
+        <v>75232</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>107721</v>
+        <v>108437</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2941701445360922</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2430241652970165</v>
+        <v>0.243356165160176</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3484510213449163</v>
+        <v>0.3507669895269653</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>8529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3851</v>
+        <v>3898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16264</v>
+        <v>16104</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05768884885314438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02604991982570919</v>
+        <v>0.02636758339422529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1100132649417845</v>
+        <v>0.1089324380638094</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1482,19 +1482,19 @@
         <v>15065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8941</v>
+        <v>9042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23084</v>
+        <v>23284</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1587631102856677</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09422934932360094</v>
+        <v>0.0952929098814997</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2432696705490032</v>
+        <v>0.2453840329768635</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1503,19 +1503,19 @@
         <v>23594</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15491</v>
+        <v>15225</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34043</v>
+        <v>34764</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09720148523987701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06382178598860137</v>
+        <v>0.06272577850272294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1402511988914175</v>
+        <v>0.1432238422132411</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>77381</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>64935</v>
+        <v>64066</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>88862</v>
+        <v>89306</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5234152276849866</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4392276913079052</v>
+        <v>0.4333517523378125</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6010739919382031</v>
+        <v>0.6040740282540087</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -1553,19 +1553,19 @@
         <v>35222</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25921</v>
+        <v>25757</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>44445</v>
+        <v>43798</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3711866528839132</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2731704968145738</v>
+        <v>0.2714446040366361</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.468390121202911</v>
+        <v>0.4615664430990744</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>110</v>
@@ -1574,19 +1574,19 @@
         <v>112603</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>97252</v>
+        <v>97656</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>127330</v>
+        <v>128032</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4639049998729249</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4006639791773662</v>
+        <v>0.4023271514523661</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5245780890698192</v>
+        <v>0.5274722646530345</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>39052</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28692</v>
+        <v>30396</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50760</v>
+        <v>51495</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2641510948334861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1940771277371227</v>
+        <v>0.2056001076396412</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3433490309013428</v>
+        <v>0.348317433862616</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1624,19 +1624,19 @@
         <v>26841</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18855</v>
+        <v>18935</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35835</v>
+        <v>35966</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.282867814587602</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1987071912375005</v>
+        <v>0.1995455785826081</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3776496354539508</v>
+        <v>0.3790286763606826</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -1645,19 +1645,19 @@
         <v>65893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55151</v>
+        <v>53398</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80612</v>
+        <v>80020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2714679619717187</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2272112949045769</v>
+        <v>0.2199929280412562</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3321089620412546</v>
+        <v>0.3296684774724526</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>22877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14995</v>
+        <v>14857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33196</v>
+        <v>32672</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1547448286283829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1014310250292803</v>
+        <v>0.1004964378929335</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2245383978517569</v>
+        <v>0.2209954867710276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1695,19 +1695,19 @@
         <v>17762</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10832</v>
+        <v>10913</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25720</v>
+        <v>26182</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1871824222428171</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1141574124064</v>
+        <v>0.1150096784339069</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2710559600682331</v>
+        <v>0.2759219956105005</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -1716,19 +1716,19 @@
         <v>40639</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28751</v>
+        <v>30262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53154</v>
+        <v>52424</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1674255529154794</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1184502529044787</v>
+        <v>0.1246753770727345</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2189867575763531</v>
+        <v>0.2159803893317469</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>4580</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1760</v>
+        <v>1698</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10245</v>
+        <v>10222</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02686445617736507</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01032276554836381</v>
+        <v>0.009960527908442636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06009400253801505</v>
+        <v>0.05995549544805858</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1841,19 +1841,19 @@
         <v>3600</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8963</v>
+        <v>8271</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03420962754076048</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008451580191234542</v>
+        <v>0.008505366327275138</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0851803083129769</v>
+        <v>0.07860773225045609</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1862,19 +1862,19 @@
         <v>8180</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4290</v>
+        <v>3696</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15108</v>
+        <v>15232</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02966762381237789</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01556020531016358</v>
+        <v>0.01340500403346918</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05479850058714649</v>
+        <v>0.05524645891743724</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>57320</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45506</v>
+        <v>45917</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70545</v>
+        <v>70662</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3362126851307927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2669153955628611</v>
+        <v>0.2693277231967086</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4137847165332615</v>
+        <v>0.4144718116816392</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1912,19 +1912,19 @@
         <v>30013</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22044</v>
+        <v>21154</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39981</v>
+        <v>39515</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2852459883732829</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2095066252520322</v>
+        <v>0.2010427730531035</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3799756537764746</v>
+        <v>0.3755467540325664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>89</v>
@@ -1933,19 +1933,19 @@
         <v>87333</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72917</v>
+        <v>71278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>103792</v>
+        <v>101833</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3167620572630555</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2644748236482408</v>
+        <v>0.2585278487260286</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3764603598704213</v>
+        <v>0.3693542026301221</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>72481</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>59407</v>
+        <v>60085</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>85716</v>
+        <v>85958</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4251408546088381</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3484574783500772</v>
+        <v>0.3524306802143149</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5027690284217735</v>
+        <v>0.5041903763362051</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>60</v>
@@ -1983,19 +1983,19 @@
         <v>59336</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>49130</v>
+        <v>49906</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>69017</v>
+        <v>69428</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5639285398015067</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4669336729996661</v>
+        <v>0.4743083174291227</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6559367068402508</v>
+        <v>0.6598465049913151</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>132</v>
@@ -2004,19 +2004,19 @@
         <v>131817</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>114409</v>
+        <v>115398</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147102</v>
+        <v>149449</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4781069636378582</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4149659861540024</v>
+        <v>0.4185552071386838</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5335449996306001</v>
+        <v>0.5420596994027862</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>36106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25332</v>
+        <v>26187</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47720</v>
+        <v>47438</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2117820040830041</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1485890189687366</v>
+        <v>0.1536015464998736</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2799011626174537</v>
+        <v>0.2782498257366556</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2054,19 +2054,19 @@
         <v>12270</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6786</v>
+        <v>7148</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19460</v>
+        <v>19169</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1166158442844499</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06449107827752144</v>
+        <v>0.06793375580873007</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1849491236063393</v>
+        <v>0.1821798186906142</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -2075,19 +2075,19 @@
         <v>48376</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36650</v>
+        <v>36394</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62829</v>
+        <v>61711</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1754633552867085</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1329324926095591</v>
+        <v>0.1320035794123219</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2278839880927995</v>
+        <v>0.2238292986012846</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>5332</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1750</v>
+        <v>2528</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10845</v>
+        <v>11716</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06322783261269459</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02074689428492708</v>
+        <v>0.02997247518858879</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1286071522565921</v>
+        <v>0.1389366408686641</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>5332</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2279</v>
+        <v>1935</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11124</v>
+        <v>11025</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03706455034747245</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01583916246186836</v>
+        <v>0.01344775007552746</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07732742242571548</v>
+        <v>0.07664159861186626</v>
       </c>
     </row>
     <row r="25">
@@ -2242,19 +2242,19 @@
         <v>28500</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20643</v>
+        <v>21048</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37895</v>
+        <v>37648</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3379611781689109</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2447933301850611</v>
+        <v>0.2495942724707566</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4493743220133103</v>
+        <v>0.4464394125380702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -2263,19 +2263,19 @@
         <v>26352</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19296</v>
+        <v>18552</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34860</v>
+        <v>34342</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4426929413866099</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3241621639627871</v>
+        <v>0.3116651294336334</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5856269776636513</v>
+        <v>0.576924638929731</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -2284,19 +2284,19 @@
         <v>54852</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43818</v>
+        <v>43806</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66660</v>
+        <v>65842</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.381298527718497</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3046009078029471</v>
+        <v>0.3045150888646713</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4633825157728357</v>
+        <v>0.4576963777477466</v>
       </c>
     </row>
     <row r="26">
@@ -2313,19 +2313,19 @@
         <v>36129</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27703</v>
+        <v>27072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45766</v>
+        <v>45762</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4284342324387684</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3285137278364973</v>
+        <v>0.3210293786832838</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5427091479025682</v>
+        <v>0.542660950193934</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -2334,19 +2334,19 @@
         <v>25957</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18530</v>
+        <v>18047</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33812</v>
+        <v>33857</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4360540525303896</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3112884154286236</v>
+        <v>0.3031762856837864</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5680262152593506</v>
+        <v>0.5687802119635312</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>62</v>
@@ -2355,19 +2355,19 @@
         <v>62086</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50324</v>
+        <v>50169</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>73807</v>
+        <v>74309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.431587266405447</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3498224002127931</v>
+        <v>0.3487441434463902</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5130666380680037</v>
+        <v>0.5165528059130403</v>
       </c>
     </row>
     <row r="27">
@@ -2384,19 +2384,19 @@
         <v>14368</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8376</v>
+        <v>8606</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>21934</v>
+        <v>23522</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1703767567796261</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09932356086567481</v>
+        <v>0.10205638879523</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2600955441599994</v>
+        <v>0.2789359448931432</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2405,19 +2405,19 @@
         <v>7218</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3061</v>
+        <v>2642</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13813</v>
+        <v>14146</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1212530060830005</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05142371410018289</v>
+        <v>0.04439138830736156</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2320462758339953</v>
+        <v>0.2376373060420453</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -2426,19 +2426,19 @@
         <v>21585</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>13394</v>
+        <v>13794</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>31843</v>
+        <v>32656</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1500496555285835</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09310771083848673</v>
+        <v>0.09588989823990163</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2213554620933111</v>
+        <v>0.2270030178518408</v>
       </c>
     </row>
     <row r="28">
@@ -2530,19 +2530,19 @@
         <v>4824</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1871</v>
+        <v>1839</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10779</v>
+        <v>10574</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03848703551406216</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01492923861462501</v>
+        <v>0.01467398480718242</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08600621424108666</v>
+        <v>0.08437255889469379</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2551,19 +2551,19 @@
         <v>8280</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3931</v>
+        <v>3912</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13898</v>
+        <v>14637</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1273678992496755</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06046641030272112</v>
+        <v>0.06017722238468457</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2137964465631579</v>
+        <v>0.2251573052027607</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2572,19 +2572,19 @@
         <v>13103</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7208</v>
+        <v>7186</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21816</v>
+        <v>20927</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0688435665615382</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03786980584159289</v>
+        <v>0.03775630996749759</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1146193848561477</v>
+        <v>0.1099495041844984</v>
       </c>
     </row>
     <row r="30">
@@ -2601,19 +2601,19 @@
         <v>58186</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46613</v>
+        <v>46872</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>70019</v>
+        <v>69118</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4642729408339498</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3719261230773666</v>
+        <v>0.37399408151434</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5586871962035864</v>
+        <v>0.5514944434240334</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -2622,19 +2622,19 @@
         <v>22787</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16400</v>
+        <v>15644</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31087</v>
+        <v>30554</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3505336960188785</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2522743590098937</v>
+        <v>0.2406522140429241</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4782129141953352</v>
+        <v>0.4700082135370952</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>79</v>
@@ -2643,19 +2643,19 @@
         <v>80974</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>66872</v>
+        <v>67562</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>94361</v>
+        <v>95833</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.425426233326519</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3513396586323361</v>
+        <v>0.3549637511830555</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4957616072103178</v>
+        <v>0.5034979688594853</v>
       </c>
     </row>
     <row r="31">
@@ -2672,19 +2672,19 @@
         <v>53797</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>42632</v>
+        <v>43844</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>64958</v>
+        <v>65164</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.429252243834745</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3401611743354729</v>
+        <v>0.3498313671153712</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5183059084191068</v>
+        <v>0.5199456924368997</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -2693,19 +2693,19 @@
         <v>28160</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>19960</v>
+        <v>20359</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36051</v>
+        <v>36164</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4331886539203761</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3070510419646358</v>
+        <v>0.3131846757392304</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5545770866393621</v>
+        <v>0.5563028537984552</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>82</v>
@@ -2714,19 +2714,19 @@
         <v>81958</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>68416</v>
+        <v>68359</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>95508</v>
+        <v>96581</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4305966924590913</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3594498491796064</v>
+        <v>0.3591532766647196</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5017888064588091</v>
+        <v>0.5074253408714396</v>
       </c>
     </row>
     <row r="32">
@@ -2743,19 +2743,19 @@
         <v>8521</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3874</v>
+        <v>3713</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>15740</v>
+        <v>16490</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06798777981724304</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03091301950894598</v>
+        <v>0.02962645715137598</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1255869036752772</v>
+        <v>0.1315760407389731</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2764,19 +2764,19 @@
         <v>5780</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2768</v>
+        <v>1976</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11722</v>
+        <v>10839</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08890975081106986</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04258709637593471</v>
+        <v>0.03038957379191002</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1803137329761078</v>
+        <v>0.1667329966540212</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -2785,19 +2785,19 @@
         <v>14301</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7816</v>
+        <v>7745</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>22935</v>
+        <v>22470</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07513350765285152</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0410648137537248</v>
+        <v>0.04069037390241531</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1204995129178924</v>
+        <v>0.1180547556923517</v>
       </c>
     </row>
     <row r="33">
@@ -2889,19 +2889,19 @@
         <v>8163</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3720</v>
+        <v>3772</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15298</v>
+        <v>16003</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03486605834158829</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01588686961669757</v>
+        <v>0.01611086137503445</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06534076511139242</v>
+        <v>0.06835257228408068</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2910,19 +2910,19 @@
         <v>6797</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2890</v>
+        <v>2965</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13022</v>
+        <v>13508</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04212628898872448</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01791040410380314</v>
+        <v>0.01837770485758223</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08070594881285172</v>
+        <v>0.08371667855760306</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>15</v>
@@ -2931,19 +2931,19 @@
         <v>14960</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8775</v>
+        <v>8531</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>23923</v>
+        <v>24695</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03782818657405227</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02218861607471369</v>
+        <v>0.02157112313181736</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06049137907961356</v>
+        <v>0.06244345387668139</v>
       </c>
     </row>
     <row r="35">
@@ -2960,19 +2960,19 @@
         <v>108246</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>94008</v>
+        <v>93476</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>123776</v>
+        <v>125081</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.462342736666255</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4015280243188953</v>
+        <v>0.3992555057359815</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5286731293228704</v>
+        <v>0.5342458236573462</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>62</v>
@@ -2981,19 +2981,19 @@
         <v>63822</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>52130</v>
+        <v>50248</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>75352</v>
+        <v>76345</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3955409872909344</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3230787433431394</v>
+        <v>0.3114139606861867</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4669994713919157</v>
+        <v>0.4731525001753348</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>168</v>
@@ -3002,19 +3002,19 @@
         <v>172068</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>153908</v>
+        <v>151864</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>194468</v>
+        <v>192283</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4350880449877376</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3891703000958774</v>
+        <v>0.3840015139305804</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4917278687588124</v>
+        <v>0.4862049352568695</v>
       </c>
     </row>
     <row r="36">
@@ -3031,19 +3031,19 @@
         <v>83096</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>68885</v>
+        <v>67798</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>97185</v>
+        <v>98560</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.354921733152352</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2942228057142023</v>
+        <v>0.2895774488120039</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.415097973879137</v>
+        <v>0.420968251162997</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>69</v>
@@ -3052,19 +3052,19 @@
         <v>69999</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>57424</v>
+        <v>57134</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>82264</v>
+        <v>83761</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4338270853407878</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3558881568189894</v>
+        <v>0.3540913868710165</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5098385908493615</v>
+        <v>0.5191171892855824</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>149</v>
@@ -3073,19 +3073,19 @@
         <v>153095</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>132862</v>
+        <v>133876</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>170742</v>
+        <v>173331</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3871146183056733</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3359521596655863</v>
+        <v>0.338516011128055</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4317352368922089</v>
+        <v>0.4382817517844189</v>
       </c>
     </row>
     <row r="37">
@@ -3102,19 +3102,19 @@
         <v>34620</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24600</v>
+        <v>24798</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>47391</v>
+        <v>47304</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1478694718398048</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1050706453597904</v>
+        <v>0.1059173009361155</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2024166340845548</v>
+        <v>0.2020439906713801</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -3123,19 +3123,19 @@
         <v>20735</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12765</v>
+        <v>12733</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31064</v>
+        <v>30863</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1285056383795533</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07911173437555399</v>
+        <v>0.07891418674620455</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1925231370946881</v>
+        <v>0.1912787289603356</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -3144,19 +3144,19 @@
         <v>55355</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42828</v>
+        <v>42999</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>71326</v>
+        <v>70588</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1399691501325369</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1082945400555146</v>
+        <v>0.1087256482849278</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1803530478590659</v>
+        <v>0.1784885654275321</v>
       </c>
     </row>
     <row r="38">
@@ -3248,19 +3248,19 @@
         <v>20090</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>12301</v>
+        <v>12193</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>31276</v>
+        <v>31094</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.06327944433013899</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03874742736337836</v>
+        <v>0.03840458145500217</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09851432314012812</v>
+        <v>0.0979418209873609</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -3269,19 +3269,19 @@
         <v>9392</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>5135</v>
+        <v>5050</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16686</v>
+        <v>16663</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05039335336592173</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02755388351745555</v>
+        <v>0.02709727699972907</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.08952999211985592</v>
+        <v>0.08940778798757422</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>27</v>
@@ -3290,19 +3290,19 @@
         <v>29481</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>19718</v>
+        <v>19932</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>41778</v>
+        <v>41463</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.05851300152779124</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03913591310659034</v>
+        <v>0.03955977816046586</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.08291897895067736</v>
+        <v>0.08229250041754299</v>
       </c>
     </row>
     <row r="40">
@@ -3319,19 +3319,19 @@
         <v>82534</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>67344</v>
+        <v>68173</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>98667</v>
+        <v>98398</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2599673017060584</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2121212568923118</v>
+        <v>0.2147336885278018</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3107828735742495</v>
+        <v>0.3099357824964412</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>56</v>
@@ -3340,19 +3340,19 @@
         <v>58731</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>46967</v>
+        <v>45961</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>71769</v>
+        <v>73131</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3151364556505398</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2520101893899222</v>
+        <v>0.2466160234704887</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3850948002301919</v>
+        <v>0.3923994143487018</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>136</v>
@@ -3361,19 +3361,19 @@
         <v>141265</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>120815</v>
+        <v>120990</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>162280</v>
+        <v>162807</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2803738483818882</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2397854915735327</v>
+        <v>0.2401333063458795</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3220827531479128</v>
+        <v>0.3231286261129169</v>
       </c>
     </row>
     <row r="41">
@@ -3390,19 +3390,19 @@
         <v>132035</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>113631</v>
+        <v>113655</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>150118</v>
+        <v>149977</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4158869070982745</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3579186188008238</v>
+        <v>0.3579925230712053</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4728465114084524</v>
+        <v>0.4724023819319574</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>66</v>
@@ -3411,19 +3411,19 @@
         <v>68336</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>56235</v>
+        <v>55239</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>83144</v>
+        <v>81118</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3666749849487398</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3017433655176865</v>
+        <v>0.2963961971168939</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.446128912222136</v>
+        <v>0.4352567680486861</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>195</v>
@@ -3432,19 +3432,19 @@
         <v>200371</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>177536</v>
+        <v>176106</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>221258</v>
+        <v>223811</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3976838839494622</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3523628014199182</v>
+        <v>0.3495237785762112</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4391393064292546</v>
+        <v>0.4442057477836229</v>
       </c>
     </row>
     <row r="42">
@@ -3461,19 +3461,19 @@
         <v>82819</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>65963</v>
+        <v>69288</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>99557</v>
+        <v>100644</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2608663468655281</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2077726567702853</v>
+        <v>0.2182461818492066</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3135866477234053</v>
+        <v>0.3170097615739479</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>48</v>
@@ -3482,19 +3482,19 @@
         <v>49908</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>39334</v>
+        <v>38109</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>62120</v>
+        <v>62168</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2677952060347986</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2110534238965208</v>
+        <v>0.2044836362863591</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.333318804526523</v>
+        <v>0.3335740698786897</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>128</v>
@@ -3503,19 +3503,19 @@
         <v>132728</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>113860</v>
+        <v>113309</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>153835</v>
+        <v>155307</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2634292661408583</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2259828691434021</v>
+        <v>0.2248884059143257</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3053226267680166</v>
+        <v>0.3082436449125455</v>
       </c>
     </row>
     <row r="43">
@@ -3607,19 +3607,19 @@
         <v>56056</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>42806</v>
+        <v>42094</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>71677</v>
+        <v>72603</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04051960713749275</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03094203477931582</v>
+        <v>0.03042711351279731</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05181115885490393</v>
+        <v>0.05248029570981885</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>47</v>
@@ -3628,19 +3628,19 @@
         <v>47194</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>35521</v>
+        <v>35397</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>62105</v>
+        <v>61105</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.05466554507205043</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.04114450064240743</v>
+        <v>0.04100007891630292</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.07193685769190881</v>
+        <v>0.07077806616992886</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>101</v>
@@ -3649,19 +3649,19 @@
         <v>103250</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>85043</v>
+        <v>85651</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>125346</v>
+        <v>125091</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.04595526070626757</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03785155746756642</v>
+        <v>0.0381219609502538</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05578981086327366</v>
+        <v>0.05567619078493789</v>
       </c>
     </row>
     <row r="45">
@@ -3678,19 +3678,19 @@
         <v>516578</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>483631</v>
+        <v>481124</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>555762</v>
+        <v>553754</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3734037997222054</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3495879868338956</v>
+        <v>0.3477760941765265</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4017272464653867</v>
+        <v>0.4002759809044142</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>295</v>
@@ -3699,19 +3699,19 @@
         <v>302954</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>276254</v>
+        <v>274507</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>330533</v>
+        <v>332210</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.3509134986415854</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.3199861169043852</v>
+        <v>0.3179634430225631</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3828580724721246</v>
+        <v>0.3848004908363523</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>805</v>
@@ -3720,19 +3720,19 @@
         <v>819533</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>770787</v>
+        <v>772365</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>862663</v>
+        <v>863640</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.3647617792427401</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3430657879149576</v>
+        <v>0.3437680263186272</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3839584099116888</v>
+        <v>0.3843931342814563</v>
       </c>
     </row>
     <row r="46">
@@ -3749,19 +3749,19 @@
         <v>539879</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>504871</v>
+        <v>505576</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>574223</v>
+        <v>576835</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3902466234969971</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.3649408964771778</v>
+        <v>0.3654510389525673</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.4150719851472914</v>
+        <v>0.4169598496098112</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>353</v>
@@ -3770,19 +3770,19 @@
         <v>359231</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>331356</v>
+        <v>329812</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>386766</v>
+        <v>388500</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.4160998444224285</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3838109551701237</v>
+        <v>0.3820233667947717</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.4479938117412589</v>
+        <v>0.4500017644888622</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>877</v>
@@ -3791,19 +3791,19 @@
         <v>899111</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>857610</v>
+        <v>848936</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>949308</v>
+        <v>944461</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.4001808642124424</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3817096772335616</v>
+        <v>0.3778487798948141</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.4225229424056313</v>
+        <v>0.420365389836263</v>
       </c>
     </row>
     <row r="47">
@@ -3820,19 +3820,19 @@
         <v>270917</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>239479</v>
+        <v>242404</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>299182</v>
+        <v>303443</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1958299696433048</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1731047687364199</v>
+        <v>0.1752192171451468</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2162605524372919</v>
+        <v>0.2193408799635775</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>150</v>
@@ -3841,19 +3841,19 @@
         <v>153950</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>132606</v>
+        <v>133022</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>176189</v>
+        <v>178889</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1783211118639356</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1535982154552338</v>
+        <v>0.1540804137721732</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2040802263719613</v>
+        <v>0.2072077160442669</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>409</v>
@@ -3862,19 +3862,19 @@
         <v>424867</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>391045</v>
+        <v>392284</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>463907</v>
+        <v>468606</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1891020958385499</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1740482272193837</v>
+        <v>0.1745996439926921</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2064780530220858</v>
+        <v>0.2085694020742133</v>
       </c>
     </row>
     <row r="48">
@@ -4210,19 +4210,19 @@
         <v>4408</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1190</v>
+        <v>1211</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10684</v>
+        <v>11179</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03229835755082568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008719436397323109</v>
+        <v>0.008876548396819964</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07828058858215121</v>
+        <v>0.08190691468627258</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4231,19 +4231,19 @@
         <v>4334</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9844</v>
+        <v>9728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04425806404262245</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01102973790929835</v>
+        <v>0.01098361122509605</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1005225264719005</v>
+        <v>0.09933546115923431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -4252,19 +4252,19 @@
         <v>8742</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4192</v>
+        <v>4151</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16646</v>
+        <v>16981</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03729482837252683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01788506065293136</v>
+        <v>0.01771006316802985</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07101137363578675</v>
+        <v>0.07244168700198789</v>
       </c>
     </row>
     <row r="5">
@@ -4281,19 +4281,19 @@
         <v>15111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8651</v>
+        <v>8500</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24713</v>
+        <v>24261</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1107225783326723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06338489749581114</v>
+        <v>0.06228044621062984</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1810750741546514</v>
+        <v>0.177762615612562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4302,19 +4302,19 @@
         <v>8025</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3195</v>
+        <v>3149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15394</v>
+        <v>15415</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08194246504438517</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03262153012122746</v>
+        <v>0.03215399116951655</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1571960142116802</v>
+        <v>0.1574072730799399</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -4323,19 +4323,19 @@
         <v>23136</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14280</v>
+        <v>14760</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33706</v>
+        <v>35620</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09869895581410858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06092060305744813</v>
+        <v>0.06296682269779272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1437903931117635</v>
+        <v>0.1519569191639025</v>
       </c>
     </row>
     <row r="6">
@@ -4352,19 +4352,19 @@
         <v>103939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91725</v>
+        <v>93450</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113046</v>
+        <v>113327</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7615726530186029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6720739307848949</v>
+        <v>0.684717901543202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8282946509459643</v>
+        <v>0.8303564131277187</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -4373,19 +4373,19 @@
         <v>73429</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64159</v>
+        <v>64120</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81742</v>
+        <v>81298</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.749805321443563</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6551408841206001</v>
+        <v>0.6547512723000042</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8346862546047371</v>
+        <v>0.8301575602829974</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>161</v>
@@ -4394,19 +4394,19 @@
         <v>177369</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>162767</v>
+        <v>162921</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>189797</v>
+        <v>188946</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7566565516992021</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6943651472280082</v>
+        <v>0.6950231324647124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8096744754379953</v>
+        <v>0.8060446081344</v>
       </c>
     </row>
     <row r="7">
@@ -4423,19 +4423,19 @@
         <v>13021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7245</v>
+        <v>7063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21397</v>
+        <v>21231</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0954064110978991</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05308180201480218</v>
+        <v>0.05175270813944086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1567789097098148</v>
+        <v>0.1555603607139251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4444,19 +4444,19 @@
         <v>12143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6736</v>
+        <v>6847</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19731</v>
+        <v>19736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1239941494694293</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06878591584248807</v>
+        <v>0.06991415735502489</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2014821908187331</v>
+        <v>0.2015302052867683</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -4465,19 +4465,19 @@
         <v>25164</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17218</v>
+        <v>16998</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36107</v>
+        <v>35744</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1073496641141625</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0734501971763888</v>
+        <v>0.07251471964758109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1540308453569466</v>
+        <v>0.1524824966845229</v>
       </c>
     </row>
     <row r="8">
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4802</v>
+        <v>4907</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004633651717230827</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02333026660158482</v>
+        <v>0.02384359400145931</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7199</v>
+        <v>6268</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01319448195419286</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04760763779473134</v>
+        <v>0.04144827075423151</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -4614,16 +4614,16 @@
         <v>956</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8018</v>
+        <v>7965</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.008259555524381663</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002677662899493547</v>
+        <v>0.002678862803749424</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02245730507856905</v>
+        <v>0.02230971790710894</v>
       </c>
     </row>
     <row r="10">
@@ -4640,19 +4640,19 @@
         <v>26046</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16846</v>
+        <v>17221</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35399</v>
+        <v>35748</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1265533167897596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08185051267386977</v>
+        <v>0.08367236560682313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1719975255933103</v>
+        <v>0.1736933602715875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -4661,19 +4661,19 @@
         <v>26120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18090</v>
+        <v>17559</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36326</v>
+        <v>36464</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1727333568776572</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.119631486026872</v>
+        <v>0.1161149997477697</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2402231794447638</v>
+        <v>0.2411327065926225</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -4682,19 +4682,19 @@
         <v>52166</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39426</v>
+        <v>40086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66782</v>
+        <v>65462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.146112679437337</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1104270206717118</v>
+        <v>0.1122753369517519</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1870483061766193</v>
+        <v>0.1833531308309723</v>
       </c>
     </row>
     <row r="11">
@@ -4711,19 +4711,19 @@
         <v>135745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>119918</v>
+        <v>121396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149842</v>
+        <v>148649</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6595597986681302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5826607889344959</v>
+        <v>0.5898431656022266</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7280551456415884</v>
+        <v>0.7222601383338679</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -4732,19 +4732,19 @@
         <v>87893</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74116</v>
+        <v>75634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99999</v>
+        <v>100974</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5812365030519671</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4901295826840154</v>
+        <v>0.5001646451703265</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6612913454328406</v>
+        <v>0.6677377688435941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>204</v>
@@ -4753,19 +4753,19 @@
         <v>223638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>204106</v>
+        <v>204477</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>243522</v>
+        <v>241934</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6263862947085392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5716795050193761</v>
+        <v>0.5727183114902815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6820783060330201</v>
+        <v>0.6776300030018411</v>
       </c>
     </row>
     <row r="12">
@@ -4782,19 +4782,19 @@
         <v>43067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32388</v>
+        <v>31345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58613</v>
+        <v>56892</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2092532328248793</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1573681738132021</v>
+        <v>0.1522977508055481</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2847890716462737</v>
+        <v>0.2764305454334012</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -4803,19 +4803,19 @@
         <v>35209</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24578</v>
+        <v>24413</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46731</v>
+        <v>46230</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2328356581161828</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1625332076482201</v>
+        <v>0.1614424227715862</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3090318107541198</v>
+        <v>0.3057208210161308</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -4824,19 +4824,19 @@
         <v>78276</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62396</v>
+        <v>62228</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>96656</v>
+        <v>95297</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2192414703297421</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1747651832441847</v>
+        <v>0.1742948701288797</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2707220774482696</v>
+        <v>0.2669179331720369</v>
       </c>
     </row>
     <row r="13">
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6591</v>
+        <v>5889</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0152911555777046</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05187896213416441</v>
+        <v>0.04635527939671059</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6726</v>
+        <v>5548</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01459621308939694</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0769220783803565</v>
+        <v>0.06345658528678932</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -4970,19 +4970,19 @@
         <v>3219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8925</v>
+        <v>8831</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01500784872623381</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00435844056802536</v>
+        <v>0.004392102003393509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04161560889249375</v>
+        <v>0.04117384750377445</v>
       </c>
     </row>
     <row r="15">
@@ -4999,19 +4999,19 @@
         <v>19992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13250</v>
+        <v>12622</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30366</v>
+        <v>29268</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1573693964258562</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1042998836539304</v>
+        <v>0.09935724124787308</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2390295997297416</v>
+        <v>0.2303915799926503</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -5020,19 +5020,19 @@
         <v>12354</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6120</v>
+        <v>6276</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20354</v>
+        <v>20356</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1413002163410119</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06999306909855886</v>
+        <v>0.0717757142202803</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2327975051849195</v>
+        <v>0.2328167888368559</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>30</v>
@@ -5041,19 +5041,19 @@
         <v>32346</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22518</v>
+        <v>23030</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>44973</v>
+        <v>45208</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1508184819370318</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1049910512555268</v>
+        <v>0.1073812969550838</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2096923516312862</v>
+        <v>0.2107902038129191</v>
       </c>
     </row>
     <row r="16">
@@ -5070,19 +5070,19 @@
         <v>79969</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68487</v>
+        <v>68931</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90091</v>
+        <v>90301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6294959854979735</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5391072946033568</v>
+        <v>0.5426023868696893</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7091677950346998</v>
+        <v>0.7108260770786312</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -5091,19 +5091,19 @@
         <v>63578</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54198</v>
+        <v>54896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71610</v>
+        <v>72023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7271576604326823</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6198841970239382</v>
+        <v>0.6278618331738358</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8190251118550737</v>
+        <v>0.8237476870561852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -5112,19 +5112,19 @@
         <v>143548</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130066</v>
+        <v>128447</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157388</v>
+        <v>157539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6693096709476779</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6064515489802398</v>
+        <v>0.598900177954124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.733843892990923</v>
+        <v>0.734548502887033</v>
       </c>
     </row>
     <row r="17">
@@ -5141,19 +5141,19 @@
         <v>25133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16257</v>
+        <v>17286</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34730</v>
+        <v>34846</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1978434624984657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1279715180737054</v>
+        <v>0.136067281985561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2733813710738611</v>
+        <v>0.2742968944859103</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -5162,19 +5162,19 @@
         <v>10225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5045</v>
+        <v>5314</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17407</v>
+        <v>18257</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1169459101369089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05770058003040004</v>
+        <v>0.06077874610362115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1990861329197434</v>
+        <v>0.2088086570371037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -5183,19 +5183,19 @@
         <v>35359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25645</v>
+        <v>25430</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46871</v>
+        <v>46559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1648639983890565</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1195735694728601</v>
+        <v>0.1185725591035246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2185443564397496</v>
+        <v>0.2170876758351799</v>
       </c>
     </row>
     <row r="18">
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4747</v>
+        <v>4935</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007234049409244991</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03650019093213333</v>
+        <v>0.03794590559550632</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5300</v>
+        <v>5225</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004035639945273119</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02273122344887204</v>
+        <v>0.02241135038836813</v>
       </c>
     </row>
     <row r="20">
@@ -5350,19 +5350,19 @@
         <v>31021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21444</v>
+        <v>21923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42628</v>
+        <v>41483</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2385093398131995</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1648776928978171</v>
+        <v>0.1685542352508618</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3277505781192319</v>
+        <v>0.318946930454358</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -5371,19 +5371,19 @@
         <v>13388</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7688</v>
+        <v>7670</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21456</v>
+        <v>21420</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1298792842610872</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0745856228909105</v>
+        <v>0.07440709471019133</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2081475650850961</v>
+        <v>0.2077991140040467</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>42</v>
@@ -5392,19 +5392,19 @@
         <v>44409</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33250</v>
+        <v>32456</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58909</v>
+        <v>58079</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1904804450553562</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1426165792966861</v>
+        <v>0.1392114631504334</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2526749542188373</v>
+        <v>0.2491140819075681</v>
       </c>
     </row>
     <row r="21">
@@ -5421,19 +5421,19 @@
         <v>81616</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69327</v>
+        <v>69745</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>93053</v>
+        <v>93032</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6275162964441547</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5330330426534537</v>
+        <v>0.536246535755199</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7154533988508619</v>
+        <v>0.7152895609985112</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -5442,19 +5442,19 @@
         <v>73660</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>63242</v>
+        <v>63369</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>82956</v>
+        <v>82175</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7145967918792695</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6135315857687839</v>
+        <v>0.6147630836803576</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8047802898207477</v>
+        <v>0.7972064780719699</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>142</v>
@@ -5463,19 +5463,19 @@
         <v>155276</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>137997</v>
+        <v>140780</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>169466</v>
+        <v>169704</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.666017426996441</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5919023496868783</v>
+        <v>0.6038404712144386</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7268841145378803</v>
+        <v>0.7279016542795197</v>
       </c>
     </row>
     <row r="22">
@@ -5492,19 +5492,19 @@
         <v>16484</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9129</v>
+        <v>10307</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25693</v>
+        <v>24829</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1267403143334008</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07018752629227679</v>
+        <v>0.0792452269545946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1975410081595816</v>
+        <v>0.1909018975364876</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -5513,19 +5513,19 @@
         <v>16031</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9199</v>
+        <v>9447</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24823</v>
+        <v>24903</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1555239238596432</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08924085723335078</v>
+        <v>0.09164567361894398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2408119856145826</v>
+        <v>0.241595160757183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -5534,19 +5534,19 @@
         <v>32515</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22655</v>
+        <v>22138</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45194</v>
+        <v>44661</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1394664880029297</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09717167788327366</v>
+        <v>0.09495471743929636</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1938466203706629</v>
+        <v>0.1915601690288864</v>
       </c>
     </row>
     <row r="23">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6620</v>
+        <v>3981</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01028196853097582</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07243288020593858</v>
+        <v>0.04355513916236775</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4647</v>
+        <v>4825</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005991922801898702</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02962769490324671</v>
+        <v>0.03076357506175877</v>
       </c>
     </row>
     <row r="25">
@@ -5701,19 +5701,19 @@
         <v>19848</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12394</v>
+        <v>12530</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30086</v>
+        <v>29406</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.217156294768349</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1356049791022382</v>
+        <v>0.1370888067240747</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3291745283421816</v>
+        <v>0.3217341443033948</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -5722,19 +5722,19 @@
         <v>8040</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3104</v>
+        <v>3936</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15228</v>
+        <v>15946</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1228609716651332</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04742969355339074</v>
+        <v>0.06014760223010729</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2326999628214859</v>
+        <v>0.2436847163265457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -5743,19 +5743,19 @@
         <v>27888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18902</v>
+        <v>18875</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39375</v>
+        <v>39018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1778125400260355</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1205216745636325</v>
+        <v>0.1203480382374585</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2510509089021196</v>
+        <v>0.2487785112299649</v>
       </c>
     </row>
     <row r="26">
@@ -5772,19 +5772,19 @@
         <v>57606</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>47680</v>
+        <v>47403</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66553</v>
+        <v>66928</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6302685016775016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5216737930888047</v>
+        <v>0.518638922144969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7281623470927933</v>
+        <v>0.7322598910744</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -5793,19 +5793,19 @@
         <v>42094</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33132</v>
+        <v>33379</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49404</v>
+        <v>48925</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6432612018824526</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5063041073262234</v>
+        <v>0.510078301346937</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7549628224856382</v>
+        <v>0.7476456324448284</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>96</v>
@@ -5814,19 +5814,19 @@
         <v>99701</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>85917</v>
+        <v>86979</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>111514</v>
+        <v>112604</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6356895723465575</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5478020037253013</v>
+        <v>0.5545737019778021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.711010846920186</v>
+        <v>0.7179616286283798</v>
       </c>
     </row>
     <row r="27">
@@ -5843,19 +5843,19 @@
         <v>13005</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7418</v>
+        <v>7306</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>21454</v>
+        <v>21924</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1422932350231736</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08116240042279062</v>
+        <v>0.079931843397335</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2347260392857724</v>
+        <v>0.2398695897689727</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -5864,19 +5864,19 @@
         <v>15305</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9552</v>
+        <v>9550</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23563</v>
+        <v>23949</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2338778264524141</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.145971870608485</v>
+        <v>0.1459305947636711</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3600772207464952</v>
+        <v>0.3659718814847311</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -5885,19 +5885,19 @@
         <v>28310</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20402</v>
+        <v>19397</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>40358</v>
+        <v>39041</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1805059648255082</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1300794317709297</v>
+        <v>0.1236773297902106</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2573228105733789</v>
+        <v>0.2489242328055723</v>
       </c>
     </row>
     <row r="28">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5013</v>
+        <v>4996</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01179242085306565</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05986970389738539</v>
+        <v>0.05966501117772834</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6345</v>
+        <v>5237</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01580389164929016</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09486623318128429</v>
+        <v>0.07829830399318236</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7169</v>
+        <v>8304</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01357361840947272</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04759928339962705</v>
+        <v>0.05513060805110312</v>
       </c>
     </row>
     <row r="30">
@@ -6060,19 +6060,19 @@
         <v>5861</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2370</v>
+        <v>2776</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11773</v>
+        <v>13037</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0699963820286071</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02829731805810648</v>
+        <v>0.03315364646363752</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1405891294036022</v>
+        <v>0.1556821252417728</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -6081,19 +6081,19 @@
         <v>3814</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10833</v>
+        <v>10370</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05703493066781527</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0157178653460846</v>
+        <v>0.01545294355449083</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1619787368557097</v>
+        <v>0.1550592314709034</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -6102,19 +6102,19 @@
         <v>9676</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4778</v>
+        <v>4921</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17115</v>
+        <v>18414</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06424115990083783</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03172401239875815</v>
+        <v>0.03267067018967656</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1136318897185456</v>
+        <v>0.1222563185433667</v>
       </c>
     </row>
     <row r="31">
@@ -6131,19 +6131,19 @@
         <v>53692</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>44347</v>
+        <v>43997</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>61853</v>
+        <v>61682</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6411697472518709</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5295801101806181</v>
+        <v>0.5254030167614463</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7386278665183733</v>
+        <v>0.736584919723498</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>48</v>
@@ -6152,19 +6152,19 @@
         <v>50374</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41937</v>
+        <v>42233</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>57136</v>
+        <v>56307</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.753203871812326</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6270650227853427</v>
+        <v>0.6314830858353554</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8543177404256077</v>
+        <v>0.8419182332225168</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>99</v>
@@ -6173,19 +6173,19 @@
         <v>104065</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>91929</v>
+        <v>91625</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>114520</v>
+        <v>114302</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6909158177178715</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6103408585703487</v>
+        <v>0.60832054569345</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.760329033106225</v>
+        <v>0.7588829510537061</v>
       </c>
     </row>
     <row r="32">
@@ -6202,19 +6202,19 @@
         <v>23199</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15837</v>
+        <v>16098</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31940</v>
+        <v>31818</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2770414498664563</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1891224342479611</v>
+        <v>0.1922375139934548</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3814128855164535</v>
+        <v>0.3799595612153046</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -6223,19 +6223,19 @@
         <v>11634</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6547</v>
+        <v>6795</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18706</v>
+        <v>18895</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1739573058705686</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09789235495602361</v>
+        <v>0.1015952576814053</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.279704009565631</v>
+        <v>0.2825312651488904</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -6244,19 +6244,19 @@
         <v>34834</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25856</v>
+        <v>25717</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>46472</v>
+        <v>45768</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2312694039718179</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1716649332485295</v>
+        <v>0.1707415117979575</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.308539334678414</v>
+        <v>0.3038675554479938</v>
       </c>
     </row>
     <row r="33">
@@ -6348,19 +6348,19 @@
         <v>5897</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2654</v>
+        <v>1872</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12337</v>
+        <v>11893</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02120539489149878</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009542496977038305</v>
+        <v>0.006729649336096352</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04436300308404258</v>
+        <v>0.04276413447374149</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6565</v>
+        <v>7587</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01120232116141024</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03413676731824508</v>
+        <v>0.03945101694647715</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -6390,19 +6390,19 @@
         <v>8052</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3939</v>
+        <v>3160</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>15512</v>
+        <v>14542</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01711580999403004</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.008373923813105961</v>
+        <v>0.006716988943775024</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0329741654659802</v>
+        <v>0.03091292740504187</v>
       </c>
     </row>
     <row r="35">
@@ -6419,19 +6419,19 @@
         <v>32975</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22501</v>
+        <v>23352</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>45581</v>
+        <v>46697</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1185707152376279</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.080909438909467</v>
+        <v>0.08397105112101556</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1639032340590524</v>
+        <v>0.1679129749573663</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -6440,19 +6440,19 @@
         <v>21540</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12396</v>
+        <v>14373</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>31763</v>
+        <v>32266</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1119980946841861</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06445432294991092</v>
+        <v>0.07473162578279045</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1651493271996121</v>
+        <v>0.1677673688833862</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>50</v>
@@ -6461,19 +6461,19 @@
         <v>54515</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>41316</v>
+        <v>41327</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>70393</v>
+        <v>70431</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1158836122053572</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08782764820298351</v>
+        <v>0.08785079323875818</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1496372656965511</v>
+        <v>0.1497183243016639</v>
       </c>
     </row>
     <row r="36">
@@ -6490,19 +6490,19 @@
         <v>161502</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>144684</v>
+        <v>144354</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>179218</v>
+        <v>177914</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5807350866172939</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.520258044167011</v>
+        <v>0.5190740674193821</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6444356166843077</v>
+        <v>0.6397472828559813</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>102</v>
@@ -6511,19 +6511,19 @@
         <v>110486</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>96669</v>
+        <v>96968</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>125335</v>
+        <v>125160</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5744702732373902</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5026328090630702</v>
+        <v>0.5041848089286963</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6516783995335285</v>
+        <v>0.6507713043271268</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>254</v>
@@ -6532,19 +6532,19 @@
         <v>271988</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>250425</v>
+        <v>251385</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>293159</v>
+        <v>293715</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5781738252615118</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5323369089094802</v>
+        <v>0.5343765949698629</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6231786266901214</v>
+        <v>0.6243589015344343</v>
       </c>
     </row>
     <row r="37">
@@ -6561,19 +6561,19 @@
         <v>77726</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>62561</v>
+        <v>63909</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>93945</v>
+        <v>92732</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2794888032535794</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2249573457075534</v>
+        <v>0.2298052136734665</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3378113608570414</v>
+        <v>0.3334476666131713</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>52</v>
@@ -6582,19 +6582,19 @@
         <v>58146</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45622</v>
+        <v>45272</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>71740</v>
+        <v>72330</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3023293109170135</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2372121696777955</v>
+        <v>0.2353912683600477</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3730105310251258</v>
+        <v>0.3760824791203302</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>126</v>
@@ -6603,19 +6603,19 @@
         <v>135872</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>117109</v>
+        <v>116553</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>157695</v>
+        <v>156815</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2888267525391009</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2489427335699412</v>
+        <v>0.2477613004058271</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3352164071520011</v>
+        <v>0.3333473590541755</v>
       </c>
     </row>
     <row r="38">
@@ -6707,19 +6707,19 @@
         <v>5809</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2798</v>
+        <v>2058</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>13683</v>
+        <v>11891</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01961405949155518</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.009448223894534074</v>
+        <v>0.006948819779695731</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04620068174021653</v>
+        <v>0.04015119421581973</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>3</v>
@@ -6728,19 +6728,19 @@
         <v>3052</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>8259</v>
+        <v>8409</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01468008368811607</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.004602166396700563</v>
+        <v>0.004586464473843607</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03973207645712792</v>
+        <v>0.04045485238487031</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>9</v>
@@ -6749,19 +6749,19 @@
         <v>8860</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>4781</v>
+        <v>4071</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>15775</v>
+        <v>15653</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01757919991601761</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.009486274958990168</v>
+        <v>0.008077535380472798</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03129741320415945</v>
+        <v>0.03105580341486801</v>
       </c>
     </row>
     <row r="40">
@@ -6778,19 +6778,19 @@
         <v>61211</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>47119</v>
+        <v>47967</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>78094</v>
+        <v>76477</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2066858450500098</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1591044133468651</v>
+        <v>0.1619673322479221</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2636922027894259</v>
+        <v>0.25823431584641</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>47</v>
@@ -6799,19 +6799,19 @@
         <v>50752</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>38654</v>
+        <v>38683</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>64721</v>
+        <v>64509</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2441571322902981</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1859577944170026</v>
+        <v>0.18609534630015</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.311358563874685</v>
+        <v>0.310338541197971</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>104</v>
@@ -6820,19 +6820,19 @@
         <v>111963</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>94378</v>
+        <v>94564</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>131764</v>
+        <v>132067</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.222139671879779</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1872508954267371</v>
+        <v>0.1876189070853508</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.261426221802025</v>
+        <v>0.2620270177098726</v>
       </c>
     </row>
     <row r="41">
@@ -6849,19 +6849,19 @@
         <v>156463</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>137418</v>
+        <v>139589</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>174032</v>
+        <v>175003</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5283162200195848</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4640070466714893</v>
+        <v>0.471340357245803</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5876389639353476</v>
+        <v>0.5909200111147904</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>100</v>
@@ -6870,19 +6870,19 @@
         <v>111254</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>96007</v>
+        <v>96889</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>126352</v>
+        <v>125576</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5352176576375159</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4618678486706419</v>
+        <v>0.4661128418744086</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6078505297083805</v>
+        <v>0.6041151292996847</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>244</v>
@@ -6891,19 +6891,19 @@
         <v>267717</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>244732</v>
+        <v>245279</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>291892</v>
+        <v>292031</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5311624959198504</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4855581785266257</v>
+        <v>0.4866444807124024</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.5791269062609506</v>
+        <v>0.5794019839645395</v>
       </c>
     </row>
     <row r="42">
@@ -6920,19 +6920,19 @@
         <v>72671</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>58319</v>
+        <v>56815</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>88916</v>
+        <v>88151</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2453838754388502</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.196920918113062</v>
+        <v>0.1918421900716398</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3002368895108257</v>
+        <v>0.2976535772247187</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>39</v>
@@ -6941,19 +6941,19 @@
         <v>42809</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>31116</v>
+        <v>31596</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>56445</v>
+        <v>56133</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2059451263840699</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1496920986455266</v>
+        <v>0.1520013574183249</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.271544158932519</v>
+        <v>0.2700452676712335</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>106</v>
@@ -6962,19 +6962,19 @@
         <v>115481</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>97879</v>
+        <v>96217</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>135366</v>
+        <v>135537</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2291186322843529</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1941967229282768</v>
+        <v>0.1908988611629175</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2685718437518316</v>
+        <v>0.2689117576594235</v>
       </c>
     </row>
     <row r="43">
@@ -7066,19 +7066,19 @@
         <v>21878</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>13700</v>
+        <v>13767</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>32300</v>
+        <v>32274</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01622085114600613</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01015734261267843</v>
+        <v>0.01020696543054858</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02394716121339325</v>
+        <v>0.02392850639984714</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>13</v>
@@ -7087,19 +7087,19 @@
         <v>13869</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>7789</v>
+        <v>7606</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23602</v>
+        <v>22516</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0142655952155444</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008011542904456657</v>
+        <v>0.00782388466083817</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0242776494344847</v>
+        <v>0.02316013487593115</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>35</v>
@@ -7108,19 +7108,19 @@
         <v>35747</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>25277</v>
+        <v>25523</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>50795</v>
+        <v>48606</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01540185846656239</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01089081399600465</v>
+        <v>0.01099662410414155</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02188544642358042</v>
+        <v>0.02094224962372895</v>
       </c>
     </row>
     <row r="45">
@@ -7137,19 +7137,19 @@
         <v>212065</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>186057</v>
+        <v>184295</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>240771</v>
+        <v>243361</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1572268654444911</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1379441927181655</v>
+        <v>0.1366378191287119</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1785097602612026</v>
+        <v>0.1804297476717971</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>132</v>
@@ -7158,19 +7158,19 @@
         <v>144034</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>122479</v>
+        <v>122877</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>168275</v>
+        <v>169130</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1481568899507146</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1259851987284359</v>
+        <v>0.1263946734033532</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1730911329002981</v>
+        <v>0.17397143925403</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>332</v>
@@ -7179,19 +7179,19 @@
         <v>356099</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>321082</v>
+        <v>319468</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>391401</v>
+        <v>394862</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1534277497295561</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1383405051178882</v>
+        <v>0.1376448361610953</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1686378598830051</v>
+        <v>0.1701289279994357</v>
       </c>
     </row>
     <row r="46">
@@ -7208,19 +7208,19 @@
         <v>830533</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>793166</v>
+        <v>792974</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>867108</v>
+        <v>864639</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.6157641536452841</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5880602002926667</v>
+        <v>0.5879175799408751</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.6428812303964364</v>
+        <v>0.6410506153015779</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>564</v>
@@ -7229,19 +7229,19 @@
         <v>612768</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>581995</v>
+        <v>578747</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>643385</v>
+        <v>643215</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.6303078583135657</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5986535137287878</v>
+        <v>0.5953132609571802</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6618006065131785</v>
+        <v>0.6616258051845502</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1337</v>
@@ -7250,19 +7250,19 @@
         <v>1443301</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1389354</v>
+        <v>1398132</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1488438</v>
+        <v>1494061</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.6218560352602406</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5986127589926595</v>
+        <v>0.6023947575943585</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.6413036370801812</v>
+        <v>0.6437260781964759</v>
       </c>
     </row>
     <row r="47">
@@ -7279,19 +7279,19 @@
         <v>284308</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>255071</v>
+        <v>256787</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>314832</v>
+        <v>317420</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2107881297642186</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1891116945424073</v>
+        <v>0.1903840445137511</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2334188268448797</v>
+        <v>0.2353382398537144</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>185</v>
@@ -7300,19 +7300,19 @@
         <v>201502</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>176622</v>
+        <v>176371</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>228653</v>
+        <v>231613</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2072696565201753</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1816773522516782</v>
+        <v>0.1814189990627535</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2351983228053117</v>
+        <v>0.2382425927136789</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>456</v>
@@ -7321,19 +7321,19 @@
         <v>485810</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>447795</v>
+        <v>444309</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>530729</v>
+        <v>525677</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2093143565436409</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1929354065563687</v>
+        <v>0.1914336199518372</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2286681231016595</v>
+        <v>0.2264915615467957</v>
       </c>
     </row>
     <row r="48">
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5246</v>
+        <v>4961</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009320848487572496</v>
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04972742260857562</v>
+        <v>0.04702414140644359</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6314</v>
+        <v>7445</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02676319320448795</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08566111446513036</v>
+        <v>0.100997921660426</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -7711,19 +7711,19 @@
         <v>2956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7665</v>
+        <v>8352</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01649540251010406</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004995895167391823</v>
+        <v>0.005150912421359</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04277093266670285</v>
+        <v>0.04660404043417916</v>
       </c>
     </row>
     <row r="5">
@@ -7740,19 +7740,19 @@
         <v>25293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17663</v>
+        <v>16488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37497</v>
+        <v>36879</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2397601729782076</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1674265636876624</v>
+        <v>0.1562951132866839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3554365226848358</v>
+        <v>0.34958098860396</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -7761,19 +7761,19 @@
         <v>11982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6229</v>
+        <v>6298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18864</v>
+        <v>19280</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1625526898052202</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08450501895160374</v>
+        <v>0.08544368798431215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2559112173190169</v>
+        <v>0.2615522636516356</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -7782,19 +7782,19 @@
         <v>37276</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26358</v>
+        <v>26924</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49311</v>
+        <v>50597</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2080024438449737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1470795689884719</v>
+        <v>0.1502407990497574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2751588103244245</v>
+        <v>0.2823339924140483</v>
       </c>
     </row>
     <row r="6">
@@ -7811,19 +7811,19 @@
         <v>66970</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54921</v>
+        <v>55045</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75881</v>
+        <v>76552</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6348166351571173</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5206040609603423</v>
+        <v>0.5217780468349233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7192849908944337</v>
+        <v>0.7256482336303459</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -7832,19 +7832,19 @@
         <v>51895</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42641</v>
+        <v>42938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58492</v>
+        <v>59884</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7040090950950023</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5784596680956899</v>
+        <v>0.5824926190738329</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7935059809984101</v>
+        <v>0.8123881701377431</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -7853,19 +7853,19 @@
         <v>118865</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>106766</v>
+        <v>104186</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>132601</v>
+        <v>131508</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6632775473700709</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5957655260189394</v>
+        <v>0.5813715700244753</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7399261365865683</v>
+        <v>0.7338288411370895</v>
       </c>
     </row>
     <row r="7">
@@ -7882,19 +7882,19 @@
         <v>12248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6789</v>
+        <v>6693</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20936</v>
+        <v>21169</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1161023433771026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06435533840469737</v>
+        <v>0.06344180934604508</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1984575564348317</v>
+        <v>0.2006635449459173</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -7903,19 +7903,19 @@
         <v>7863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3649</v>
+        <v>3592</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15194</v>
+        <v>15149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1066750218952895</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04950013131734992</v>
+        <v>0.04873537560453558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2061195416300791</v>
+        <v>0.2055164814542411</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -7924,19 +7924,19 @@
         <v>20112</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12381</v>
+        <v>12704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30024</v>
+        <v>32068</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1122246062748513</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0690898001604771</v>
+        <v>0.07089198276356071</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.167535440638551</v>
+        <v>0.1789433258834647</v>
       </c>
     </row>
     <row r="8">
@@ -8028,19 +8028,19 @@
         <v>3109</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8335</v>
+        <v>8278</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01517463439884244</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004912048127245135</v>
+        <v>0.004937607318118969</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04068300973346204</v>
+        <v>0.04040550495665166</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -8049,19 +8049,19 @@
         <v>3045</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9016</v>
+        <v>8356</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02192630431203685</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007053353019631753</v>
+        <v>0.006992030730559116</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06492903445347661</v>
+        <v>0.06017412544326148</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -8070,19 +8070,19 @@
         <v>6154</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2084</v>
+        <v>2986</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13206</v>
+        <v>13335</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01790216263014991</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006061642753221134</v>
+        <v>0.008686946737472714</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03841845374037153</v>
+        <v>0.0387936412529471</v>
       </c>
     </row>
     <row r="10">
@@ -8099,19 +8099,19 @@
         <v>38384</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27827</v>
+        <v>28125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51366</v>
+        <v>51291</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1873602075350095</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1358266631415541</v>
+        <v>0.1372843778027477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.250722937702894</v>
+        <v>0.25036112719271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -8120,19 +8120,19 @@
         <v>24095</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16938</v>
+        <v>15832</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34641</v>
+        <v>33257</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1735219286950071</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1219790424008539</v>
+        <v>0.114016463912444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2494686333366387</v>
+        <v>0.2395053053819303</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -8141,19 +8141,19 @@
         <v>62480</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49454</v>
+        <v>48282</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76572</v>
+        <v>77056</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1817698429742288</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1438744787219434</v>
+        <v>0.1404663135846065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2227670591139833</v>
+        <v>0.2241761397129654</v>
       </c>
     </row>
     <row r="11">
@@ -8170,19 +8170,19 @@
         <v>75286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62181</v>
+        <v>61630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>89993</v>
+        <v>89231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3674835180614436</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3035126920472562</v>
+        <v>0.3008241361753862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4392702347484859</v>
+        <v>0.4355493390890884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -8191,19 +8191,19 @@
         <v>64175</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52141</v>
+        <v>51787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75865</v>
+        <v>77621</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4621617871859735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3754927068601581</v>
+        <v>0.3729500323937053</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5463483657069036</v>
+        <v>0.5589905211741183</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>131</v>
@@ -8212,19 +8212,19 @@
         <v>139462</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>122398</v>
+        <v>122282</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>157689</v>
+        <v>158466</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4057314856381496</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3560872963998863</v>
+        <v>0.3557493857269542</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.45875874489609</v>
+        <v>0.4610175665365974</v>
       </c>
     </row>
     <row r="12">
@@ -8241,19 +8241,19 @@
         <v>88090</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72667</v>
+        <v>74315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>102883</v>
+        <v>102365</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4299816400047045</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.354699371125075</v>
+        <v>0.3627419211809143</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5021870463250814</v>
+        <v>0.4996565016293018</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -8262,19 +8262,19 @@
         <v>47544</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>37008</v>
+        <v>36423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59724</v>
+        <v>59852</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3423899798069825</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2665125039835593</v>
+        <v>0.2623048458342666</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4301079261732995</v>
+        <v>0.4310284962581556</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>126</v>
@@ -8283,19 +8283,19 @@
         <v>135635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>118183</v>
+        <v>117241</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>153776</v>
+        <v>153818</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3945965087574717</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3438254715988451</v>
+        <v>0.34108347469418</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4473754696710222</v>
+        <v>0.4474955386365208</v>
       </c>
     </row>
     <row r="13">
@@ -8387,19 +8387,19 @@
         <v>7669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3781</v>
+        <v>3726</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13995</v>
+        <v>14636</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08214156792800334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04049914829338289</v>
+        <v>0.03990916986141532</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.149886065195322</v>
+        <v>0.1567586574674607</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -8408,19 +8408,19 @@
         <v>3723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9247</v>
+        <v>8834</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04573392777186735</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01174298555571999</v>
+        <v>0.01118879094966172</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1136004279484593</v>
+        <v>0.1085171225161865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -8429,19 +8429,19 @@
         <v>11392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5736</v>
+        <v>6392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19318</v>
+        <v>19619</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06518407627345056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03282166775418383</v>
+        <v>0.03657597879885853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1105325846554833</v>
+        <v>0.1122576613615561</v>
       </c>
     </row>
     <row r="15">
@@ -8458,19 +8458,19 @@
         <v>14258</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8318</v>
+        <v>8484</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23427</v>
+        <v>21289</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.152708895198975</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08908967950708345</v>
+        <v>0.09086417542024965</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2509063351082419</v>
+        <v>0.2280078991737147</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -8479,19 +8479,19 @@
         <v>5305</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10871</v>
+        <v>10069</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06516670356720188</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02224379322379729</v>
+        <v>0.02213126102378337</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1335479893256773</v>
+        <v>0.1236882907506152</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -8500,19 +8500,19 @@
         <v>19563</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>12599</v>
+        <v>12570</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>28410</v>
+        <v>29229</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1119345967920825</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07208761982711558</v>
+        <v>0.0719230634615341</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1625547643027361</v>
+        <v>0.1672397179228781</v>
       </c>
     </row>
     <row r="16">
@@ -8529,19 +8529,19 @@
         <v>57113</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46793</v>
+        <v>46502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65308</v>
+        <v>65783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6116919960272029</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5011637236466155</v>
+        <v>0.4980458566191007</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.699456395741103</v>
+        <v>0.7045502066144387</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -8550,19 +8550,19 @@
         <v>56683</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48074</v>
+        <v>47839</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64512</v>
+        <v>64119</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6963244113515873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5905697382347829</v>
+        <v>0.5876840606771873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7924986706611438</v>
+        <v>0.787672602193181</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -8571,19 +8571,19 @@
         <v>113796</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100860</v>
+        <v>101478</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>126355</v>
+        <v>125603</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6511110155080911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5770950347706238</v>
+        <v>0.5806322900979265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7229696020419348</v>
+        <v>0.7186679282911168</v>
       </c>
     </row>
     <row r="17">
@@ -8600,19 +8600,19 @@
         <v>14328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8633</v>
+        <v>8674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22423</v>
+        <v>22836</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1534575408458188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09246196320116232</v>
+        <v>0.09290178426322716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.240155835986543</v>
+        <v>0.2445749211919053</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -8621,19 +8621,19 @@
         <v>15692</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9317</v>
+        <v>9094</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24212</v>
+        <v>24020</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1927749573093435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1144504300091547</v>
+        <v>0.1117132737616386</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2974362711687562</v>
+        <v>0.2950810368156216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -8642,19 +8642,19 @@
         <v>30021</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21183</v>
+        <v>20476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41053</v>
+        <v>40446</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1717703114263759</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.121204221248381</v>
+        <v>0.1171579160093964</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2348942919023759</v>
+        <v>0.2314232608564592</v>
       </c>
     </row>
     <row r="18">
@@ -8746,19 +8746,19 @@
         <v>4218</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1290</v>
+        <v>1031</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10803</v>
+        <v>10276</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03028456840905127</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009263402346654176</v>
+        <v>0.007398580549773417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07755788479002669</v>
+        <v>0.07377394223305093</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>4218</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1314</v>
+        <v>976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11046</v>
+        <v>9939</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01700602386016338</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00529719708670201</v>
+        <v>0.003936430753290271</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0445304591833333</v>
+        <v>0.04006947230301503</v>
       </c>
     </row>
     <row r="20">
@@ -8809,19 +8809,19 @@
         <v>21490</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13674</v>
+        <v>13814</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31642</v>
+        <v>32089</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1542828329612994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09817261671665806</v>
+        <v>0.09917873208650171</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2271691003285072</v>
+        <v>0.2303810380729039</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -8830,19 +8830,19 @@
         <v>27286</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18507</v>
+        <v>17343</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37344</v>
+        <v>36702</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2508883994514474</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1701728439348183</v>
+        <v>0.1594694307574872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3433675069393053</v>
+        <v>0.3374697524804579</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -8851,19 +8851,19 @@
         <v>48775</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37636</v>
+        <v>37080</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>62324</v>
+        <v>62897</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1966404225093344</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1517329508345544</v>
+        <v>0.1494898204856779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2512627496975245</v>
+        <v>0.2535724157028816</v>
       </c>
     </row>
     <row r="21">
@@ -8880,19 +8880,19 @@
         <v>89678</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77350</v>
+        <v>77724</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>102466</v>
+        <v>101144</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6438342904321445</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5553281190875096</v>
+        <v>0.5580132672599598</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7356488191322966</v>
+        <v>0.7261557509598748</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>51</v>
@@ -8901,19 +8901,19 @@
         <v>54356</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43820</v>
+        <v>43542</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>64620</v>
+        <v>64470</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4997931904662012</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4029144494587945</v>
+        <v>0.4003562652457118</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5941679644225807</v>
+        <v>0.5927928368454239</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>134</v>
@@ -8922,19 +8922,19 @@
         <v>144034</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>127050</v>
+        <v>126728</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>158828</v>
+        <v>159359</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5806781596616974</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5122075575310032</v>
+        <v>0.5109090754550649</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.640319990793717</v>
+        <v>0.6424636687187361</v>
       </c>
     </row>
     <row r="22">
@@ -8951,19 +8951,19 @@
         <v>23901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16086</v>
+        <v>15341</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34364</v>
+        <v>33181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1715983081975048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.115486006251631</v>
+        <v>0.110139143466345</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2467161608111166</v>
+        <v>0.2382228849897315</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -8972,19 +8972,19 @@
         <v>27115</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18485</v>
+        <v>18352</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36910</v>
+        <v>36702</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2493184100823514</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1699650234679457</v>
+        <v>0.1687475080457026</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3393787905694067</v>
+        <v>0.3374692628416481</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -8993,19 +8993,19 @@
         <v>51017</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38536</v>
+        <v>39640</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65443</v>
+        <v>65073</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2056753939688048</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1553593147586599</v>
+        <v>0.159810453773223</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2638367643877396</v>
+        <v>0.2623444328590259</v>
       </c>
     </row>
     <row r="23">
@@ -9110,19 +9110,19 @@
         <v>2742</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7573</v>
+        <v>7504</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04840792747024552</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01457398437072213</v>
+        <v>0.01468764176041923</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1337056215306028</v>
+        <v>0.1324784901227236</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -9131,19 +9131,19 @@
         <v>2742</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7480</v>
+        <v>7544</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01978344706738588</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005978007314307543</v>
+        <v>0.005990844075277319</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05396786881193998</v>
+        <v>0.05442744401343816</v>
       </c>
     </row>
     <row r="25">
@@ -9160,19 +9160,19 @@
         <v>7364</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3146</v>
+        <v>3227</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14596</v>
+        <v>14351</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08984724906241023</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03838170040244674</v>
+        <v>0.03937499617841073</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1780926982613164</v>
+        <v>0.1751098471311412</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -9181,19 +9181,19 @@
         <v>4826</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9831</v>
+        <v>10540</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08520032837103794</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03268810627260896</v>
+        <v>0.03257719419132973</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1735673108264421</v>
+        <v>0.1860839505226632</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -9202,19 +9202,19 @@
         <v>12190</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6692</v>
+        <v>6821</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20758</v>
+        <v>20667</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08794813636892401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04828486349052844</v>
+        <v>0.04921383188115904</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1497680268175083</v>
+        <v>0.1491123891058891</v>
       </c>
     </row>
     <row r="26">
@@ -9231,19 +9231,19 @@
         <v>55725</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46664</v>
+        <v>46633</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64083</v>
+        <v>63718</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.679943665646935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5693780112961195</v>
+        <v>0.5689979783026539</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7819255746405011</v>
+        <v>0.7774666426252329</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -9252,19 +9252,19 @@
         <v>41727</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35323</v>
+        <v>34116</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48079</v>
+        <v>47424</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7366601787282856</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6236128360087091</v>
+        <v>0.6022977863844088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8488085060778769</v>
+        <v>0.8372451562737679</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -9273,19 +9273,19 @@
         <v>97452</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>86101</v>
+        <v>85492</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107776</v>
+        <v>106857</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7031226818335148</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6212227955852485</v>
+        <v>0.6168275213281413</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7776074446465674</v>
+        <v>0.7709808933890494</v>
       </c>
     </row>
     <row r="27">
@@ -9302,19 +9302,19 @@
         <v>18867</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12193</v>
+        <v>11682</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27654</v>
+        <v>26902</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2302090852906547</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1487774131447285</v>
+        <v>0.1425351313836406</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3374245166013637</v>
+        <v>0.3282491811437153</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -9323,19 +9323,19 @@
         <v>7348</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3585</v>
+        <v>3652</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12982</v>
+        <v>13535</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1297315654304309</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06329491356727696</v>
+        <v>0.06447807319639345</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2291884100610181</v>
+        <v>0.2389533043276426</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -9344,19 +9344,19 @@
         <v>26215</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>17781</v>
+        <v>18135</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>34978</v>
+        <v>36353</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1891457347301753</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1282932634995617</v>
+        <v>0.1308482063864213</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2523653044219381</v>
+        <v>0.2622885910423616</v>
       </c>
     </row>
     <row r="28">
@@ -9448,19 +9448,19 @@
         <v>5034</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1914</v>
+        <v>1941</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11003</v>
+        <v>11038</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05706018204818983</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02169880986803046</v>
+        <v>0.0220034344541324</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.124703972986084</v>
+        <v>0.1251005804831497</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -9469,19 +9469,19 @@
         <v>3916</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1026</v>
+        <v>978</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9038</v>
+        <v>8932</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05447575325471394</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01427276380445408</v>
+        <v>0.01359780163845876</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1257154764269597</v>
+        <v>0.124251343201523</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -9490,19 +9490,19 @@
         <v>8951</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4842</v>
+        <v>4797</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16171</v>
+        <v>16879</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05589983990086951</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03023964379208329</v>
+        <v>0.02995702369501775</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1009951440244034</v>
+        <v>0.1054131623638403</v>
       </c>
     </row>
     <row r="30">
@@ -9519,19 +9519,19 @@
         <v>10737</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5859</v>
+        <v>5835</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18575</v>
+        <v>17828</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1216920052494452</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06640581959676191</v>
+        <v>0.06613244683317701</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2105335153643463</v>
+        <v>0.2020575699720827</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -9540,19 +9540,19 @@
         <v>14806</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8950</v>
+        <v>8250</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22700</v>
+        <v>21822</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.205947875172958</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1244975708306544</v>
+        <v>0.1147637969287805</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.315756517183308</v>
+        <v>0.3035474174130564</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -9561,19 +9561,19 @@
         <v>25542</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17064</v>
+        <v>17032</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35884</v>
+        <v>36356</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1595207267364481</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.106568005456445</v>
+        <v>0.106372134847496</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2241050439866633</v>
+        <v>0.2270546704481029</v>
       </c>
     </row>
     <row r="31">
@@ -9590,19 +9590,19 @@
         <v>58837</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>49466</v>
+        <v>48714</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>67077</v>
+        <v>67387</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.666854542346601</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.560648797913528</v>
+        <v>0.5521250196578724</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7602564520808219</v>
+        <v>0.7637701744626414</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>39</v>
@@ -9611,19 +9611,19 @@
         <v>39588</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>30565</v>
+        <v>31094</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>46854</v>
+        <v>48354</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5506774395858224</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4251643758305787</v>
+        <v>0.4325153591706113</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6517497623967916</v>
+        <v>0.6726122794292068</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>95</v>
@@ -9632,19 +9632,19 @@
         <v>98425</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>85233</v>
+        <v>84815</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>110982</v>
+        <v>109653</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6146940072112564</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5323039758648964</v>
+        <v>0.5296968769149124</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6931196014337674</v>
+        <v>0.6848156875587232</v>
       </c>
     </row>
     <row r="32">
@@ -9661,19 +9661,19 @@
         <v>13622</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7015</v>
+        <v>7976</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21399</v>
+        <v>22502</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.154393270355764</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07951129678824935</v>
+        <v>0.09040289972663919</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2425337729683075</v>
+        <v>0.2550409194577398</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -9682,19 +9682,19 @@
         <v>13580</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7631</v>
+        <v>7440</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21871</v>
+        <v>21540</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1888989319865058</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1061428734693731</v>
+        <v>0.1034965782480819</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.304227817409193</v>
+        <v>0.2996271786890651</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>25</v>
@@ -9703,19 +9703,19 @@
         <v>27202</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18736</v>
+        <v>18248</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>37985</v>
+        <v>39307</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.169885426151426</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1170146441352715</v>
+        <v>0.1139618120062049</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2372258298086112</v>
+        <v>0.2454867975846946</v>
       </c>
     </row>
     <row r="33">
@@ -9807,19 +9807,19 @@
         <v>4303</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1080</v>
+        <v>1095</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11184</v>
+        <v>10779</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02200429648479651</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005520169234427547</v>
+        <v>0.005600367591384392</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05718774092445943</v>
+        <v>0.05511534973912199</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -9828,19 +9828,19 @@
         <v>3427</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8997</v>
+        <v>9454</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0200044041293202</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005421495989677427</v>
+        <v>0.005371533412379415</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05252489829450061</v>
+        <v>0.05519228407053585</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -9849,19 +9849,19 @@
         <v>7730</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3616</v>
+        <v>3161</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16136</v>
+        <v>15421</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0210705048472412</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009856359034107998</v>
+        <v>0.008617138461261789</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0439843766013183</v>
+        <v>0.04203659383138555</v>
       </c>
     </row>
     <row r="35">
@@ -9878,19 +9878,19 @@
         <v>66065</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>53265</v>
+        <v>51515</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82122</v>
+        <v>80931</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3378185091287023</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2723668395354672</v>
+        <v>0.2634170230330976</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4199262355414595</v>
+        <v>0.4138364386603518</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>57</v>
@@ -9899,19 +9899,19 @@
         <v>58741</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>46766</v>
+        <v>47099</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>72205</v>
+        <v>71535</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3429271585872451</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2730170675364906</v>
+        <v>0.2749609494374807</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4215289595288656</v>
+        <v>0.4176205039551431</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>114</v>
@@ -9920,19 +9920,19 @@
         <v>124806</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>107228</v>
+        <v>107076</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>145587</v>
+        <v>145738</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3402038445846461</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2922904179048857</v>
+        <v>0.2918740756426564</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3968495920498483</v>
+        <v>0.3972617849777387</v>
       </c>
     </row>
     <row r="36">
@@ -9949,19 +9949,19 @@
         <v>94229</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>79704</v>
+        <v>79122</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>108463</v>
+        <v>109621</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4818326678656886</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4075608607000133</v>
+        <v>0.4045856635343163</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.554620689387214</v>
+        <v>0.5605416415987515</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>86</v>
@@ -9970,19 +9970,19 @@
         <v>89224</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>75616</v>
+        <v>74831</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>101763</v>
+        <v>101517</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.520885588808751</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4414450731125684</v>
+        <v>0.4368600975971871</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5940844695709133</v>
+        <v>0.5926504231620872</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>164</v>
@@ -9991,19 +9991,19 @@
         <v>183453</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>163020</v>
+        <v>163713</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>202823</v>
+        <v>201589</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.500067294793924</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4443692745323593</v>
+        <v>0.4462584684204264</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5528679219882682</v>
+        <v>0.5495046782417466</v>
       </c>
     </row>
     <row r="37">
@@ -10020,19 +10020,19 @@
         <v>30966</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20856</v>
+        <v>21656</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41714</v>
+        <v>42925</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1583445265208127</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1066438213012183</v>
+        <v>0.1107387351315009</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2133001168663118</v>
+        <v>0.2194934863145127</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -10041,19 +10041,19 @@
         <v>19901</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12148</v>
+        <v>12222</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>30432</v>
+        <v>30106</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1161828484746836</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07091671963702736</v>
+        <v>0.0713537156433364</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1776600003395629</v>
+        <v>0.1757583919204503</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>47</v>
@@ -10062,19 +10062,19 @@
         <v>50868</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>38512</v>
+        <v>39297</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>66746</v>
+        <v>66994</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1386583557741886</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1049777996058334</v>
+        <v>0.1071175073981922</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1819418216537086</v>
+        <v>0.1826173353063769</v>
       </c>
     </row>
     <row r="38">
@@ -10166,19 +10166,19 @@
         <v>7600</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2953</v>
+        <v>2871</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>14840</v>
+        <v>15761</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02989392007171357</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01161427217474599</v>
+        <v>0.01129396760762235</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05837381776678608</v>
+        <v>0.06200028856530884</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -10187,19 +10187,19 @@
         <v>4074</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9907</v>
+        <v>10279</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01929729940625943</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.004671970570299566</v>
+        <v>0.004680986860312665</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04692268064411109</v>
+        <v>0.04868364659846922</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>11</v>
@@ -10208,19 +10208,19 @@
         <v>11674</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>5803</v>
+        <v>6340</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>20411</v>
+        <v>19824</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02508600994006631</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01247054246913906</v>
+        <v>0.01362418687628353</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04386174984715053</v>
+        <v>0.04260035889682463</v>
       </c>
     </row>
     <row r="40">
@@ -10237,19 +10237,19 @@
         <v>45763</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>34002</v>
+        <v>34785</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>59641</v>
+        <v>61352</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1800169506184264</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1337505904173886</v>
+        <v>0.1368338223366745</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2346057408601461</v>
+        <v>0.2413366248143237</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>34</v>
@@ -10258,19 +10258,19 @@
         <v>36042</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>26396</v>
+        <v>25787</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>48740</v>
+        <v>49277</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1706987333659599</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1250150129156047</v>
+        <v>0.1221300994873336</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2308407110214043</v>
+        <v>0.2333841195599345</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>77</v>
@@ -10279,19 +10279,19 @@
         <v>81805</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>66546</v>
+        <v>65212</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>98602</v>
+        <v>99601</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1757890790590453</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.142999851733234</v>
+        <v>0.1401321750369347</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2118828158177184</v>
+        <v>0.2140314570601318</v>
       </c>
     </row>
     <row r="41">
@@ -10308,19 +10308,19 @@
         <v>151791</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>135546</v>
+        <v>136696</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>167912</v>
+        <v>168077</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5970949810912809</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5331915279947379</v>
+        <v>0.5377170356092141</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.6605081214957953</v>
+        <v>0.6611583687219807</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>118</v>
@@ -10329,19 +10329,19 @@
         <v>124446</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>110447</v>
+        <v>109151</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>138248</v>
+        <v>139132</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5893922444135378</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5230902453786653</v>
+        <v>0.5169525147220065</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6547592450365662</v>
+        <v>0.6589464702216723</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>261</v>
@@ -10350,19 +10350,19 @@
         <v>276237</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>254714</v>
+        <v>256231</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>298473</v>
+        <v>300556</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5936000871167267</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.547349543699536</v>
+        <v>0.5506092957709342</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.6413816194929274</v>
+        <v>0.6458579250967905</v>
       </c>
     </row>
     <row r="42">
@@ -10379,19 +10379,19 @@
         <v>49062</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>35892</v>
+        <v>37857</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>62538</v>
+        <v>63305</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1929941482185792</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1411852563205347</v>
+        <v>0.148917496322484</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2460020223541858</v>
+        <v>0.2490207607007418</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>45</v>
@@ -10400,19 +10400,19 @@
         <v>46581</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>34667</v>
+        <v>34533</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>60141</v>
+        <v>59032</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2206117228142429</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1641864723232262</v>
+        <v>0.1635525111062112</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2848334654961973</v>
+        <v>0.2795817760345892</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>91</v>
@@ -10421,19 +10421,19 @@
         <v>95643</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>79146</v>
+        <v>76690</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>114772</v>
+        <v>114877</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2055248238841617</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.170074632310585</v>
+        <v>0.1647980131942957</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2466316370481425</v>
+        <v>0.2468563288696851</v>
       </c>
     </row>
     <row r="43">
@@ -10525,19 +10525,19 @@
         <v>32917</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>23047</v>
+        <v>22726</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>45504</v>
+        <v>45839</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02830386996230591</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01981711191443668</v>
+        <v>0.01954149937930067</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03912694908454444</v>
+        <v>0.03941498057868265</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>23</v>
@@ -10546,19 +10546,19 @@
         <v>22900</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14552</v>
+        <v>14970</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>33690</v>
+        <v>33707</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02506254011375764</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01592661278743431</v>
+        <v>0.01638412244228438</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03687189778864635</v>
+        <v>0.03689089203585242</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>55</v>
@@ -10567,19 +10567,19 @@
         <v>55817</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>42893</v>
+        <v>43106</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>73658</v>
+        <v>73112</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02687774856345363</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02065451192270047</v>
+        <v>0.02075698586760553</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03546885720892178</v>
+        <v>0.03520610511847829</v>
       </c>
     </row>
     <row r="45">
@@ -10596,19 +10596,19 @@
         <v>229354</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>201820</v>
+        <v>203160</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>257014</v>
+        <v>258815</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1972115231903978</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1735358010006836</v>
+        <v>0.1746888243028952</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2209952698567408</v>
+        <v>0.2225438882257313</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>178</v>
@@ -10617,19 +10617,19 @@
         <v>183082</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>159134</v>
+        <v>157327</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>208438</v>
+        <v>208612</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2003744379412966</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1741638267888836</v>
+        <v>0.1721869781336002</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2281251632239188</v>
+        <v>0.2283156331783541</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>387</v>
@@ -10638,19 +10638,19 @@
         <v>412436</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>376597</v>
+        <v>375590</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>451903</v>
+        <v>445512</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1986031434881662</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1813451500984358</v>
+        <v>0.1808601226886426</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2176075292305652</v>
+        <v>0.2145301507885037</v>
       </c>
     </row>
     <row r="46">
@@ -10667,19 +10667,19 @@
         <v>649628</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>613961</v>
+        <v>616464</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>680705</v>
+        <v>688014</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.5585869546734734</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5279181904548418</v>
+        <v>0.5300704665587119</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.5853085901272977</v>
+        <v>0.5915927565317731</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>508</v>
@@ -10688,19 +10688,19 @@
         <v>522094</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>492741</v>
+        <v>488548</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>553778</v>
+        <v>550869</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5714056087958271</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5392806000303801</v>
+        <v>0.534690895578774</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6060820684199315</v>
+        <v>0.6028981563138183</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1112</v>
@@ -10709,19 +10709,19 @@
         <v>1171722</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1124743</v>
+        <v>1124840</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1221581</v>
+        <v>1215129</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.5642269104331633</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5416048215962636</v>
+        <v>0.5416516814042249</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5882359063681808</v>
+        <v>0.5851288981021644</v>
       </c>
     </row>
     <row r="47">
@@ -10738,19 +10738,19 @@
         <v>251086</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>223246</v>
+        <v>221726</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>280629</v>
+        <v>280349</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2158976521738229</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1919597234622424</v>
+        <v>0.1906527530307789</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2413010254082398</v>
+        <v>0.2410598977780485</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>176</v>
@@ -10759,19 +10759,19 @@
         <v>185625</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>163105</v>
+        <v>161708</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>213804</v>
+        <v>212071</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2031574131491186</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1785107136810162</v>
+        <v>0.1769813436368317</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2339981147295006</v>
+        <v>0.2321011690899032</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>412</v>
@@ -10780,19 +10780,19 @@
         <v>436711</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>400820</v>
+        <v>402567</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>477508</v>
+        <v>478529</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2102921975152169</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1930094270466009</v>
+        <v>0.1938505842423665</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2299373644800578</v>
+        <v>0.2304289953183225</v>
       </c>
     </row>
     <row r="48">
